--- a/Outputs/PtX_demand_EL.xlsx
+++ b/Outputs/PtX_demand_EL.xlsx
@@ -493,7 +493,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Overall Demand</t>
+          <t>Hydrogen</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -502,17 +502,23 @@
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
+      <c r="F2" t="n">
+        <v>0.0006929550082569367</v>
+      </c>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+      <c r="H2" t="n">
+        <v>5.119202010579284e-09</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.0002384841389008723</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Hydrogen</t>
+          <t>Methanol</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -521,30 +527,26 @@
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="n">
-        <v>0.0006929550082569367</v>
-      </c>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="n">
-        <v>5.119202010579284e-09</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.0002384841389008723</v>
-      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Methanol</t>
+          <t>Ammonia</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>2030</v>
       </c>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
+      <c r="D4" t="n">
+        <v>0.001961873253426569</v>
+      </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -556,16 +558,14 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Ammonia</t>
+          <t>Synthetic Gases</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>2030</v>
       </c>
       <c r="C5" t="inlineStr"/>
-      <c r="D5" t="n">
-        <v>0.001961873253426569</v>
-      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -577,7 +577,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Synthetic Gases</t>
+          <t>Biogenic Gases</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -585,18 +585,24 @@
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>0.0002084676490721048</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.0002333151363903</v>
+      </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+      <c r="I6" t="n">
+        <v>3.972484595547233e-05</v>
+      </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Biogenic Gases</t>
+          <t>Synthetic Liquids</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -604,24 +610,18 @@
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="n">
-        <v>0.0002084676490721048</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.0002333151363903</v>
-      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
-      <c r="I7" t="n">
-        <v>3.972484595547233e-05</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Synthetic Liquids</t>
+          <t>Biogenic Liquids</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -630,17 +630,29 @@
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="F8" t="n">
+        <v>0.0136010314688469</v>
+      </c>
+      <c r="G8" t="n">
+        <v>3.244016311241035e-05</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.0005492420170502</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.0081773923115365</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1.141692868523114e-05</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.009414850482104999</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Biogenic Liquids</t>
+          <t>Biomass [Solid]</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -648,30 +660,20 @@
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="n">
-        <v>0.0136010314688469</v>
-      </c>
-      <c r="G9" t="n">
-        <v>3.244016311241035e-05</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.0005492420170502</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.0081773923115365</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1.141692868523114e-05</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.009414850482104999</v>
-      </c>
+      <c r="E9" t="n">
+        <v>0.0003571773847758737</v>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Biomass [Solid]</t>
+          <t>Renewable Energy Carrier</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -680,7 +682,7 @@
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.0003571773847758737</v>
+        <v>0.003241837538645633</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -692,28 +694,42 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Renewable Energy Carrier</t>
+          <t>Overall Demand</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>2030</v>
       </c>
       <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
+      <c r="D11" t="n">
+        <v>0.001961873253426569</v>
+      </c>
       <c r="E11" t="n">
-        <v>0.003241837538645633</v>
-      </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+        <v>0.003807482572493612</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.01452730161349414</v>
+      </c>
+      <c r="G11" t="n">
+        <v>3.244016311241035e-05</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.0005492471362522106</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.008455601296392844</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1.141692868523114e-05</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.009414850482104999</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Overall Demand</t>
+          <t>Hydrogen</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -722,17 +738,23 @@
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
+      <c r="F12" t="n">
+        <v>0.0033161620761759</v>
+      </c>
       <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
+      <c r="H12" t="n">
+        <v>4.285337502695454e-07</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.0003414012692354143</v>
+      </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Hydrogen</t>
+          <t>Methanol</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -741,30 +763,26 @@
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="n">
-        <v>0.0033161620761759</v>
-      </c>
+      <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
-      <c r="H13" t="n">
-        <v>4.285337502695454e-07</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0.0003414012692354143</v>
-      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Methanol</t>
+          <t>Ammonia</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>2040</v>
       </c>
       <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
+      <c r="D14" t="n">
+        <v>0.00210862566944133</v>
+      </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -776,28 +794,30 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Ammonia</t>
+          <t>Synthetic Gases</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>2040</v>
       </c>
       <c r="C15" t="inlineStr"/>
-      <c r="D15" t="n">
-        <v>0.00210862566944133</v>
-      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
+      <c r="F15" t="n">
+        <v>1.236591495221729e-09</v>
+      </c>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
+      <c r="I15" t="n">
+        <v>1.037815437865046e-10</v>
+      </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Synthetic Gases</t>
+          <t>Biogenic Gases</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -805,14 +825,16 @@
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>0.0008934860980501074</v>
+      </c>
       <c r="F16" t="n">
-        <v>1.236591495221729e-09</v>
+        <v>0.0002813980126402</v>
       </c>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="n">
-        <v>1.037815437865046e-10</v>
+        <v>7.13795499841473e-05</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -820,7 +842,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Biogenic Gases</t>
+          <t>Synthetic Liquids</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -828,24 +850,18 @@
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
-      <c r="E17" t="n">
-        <v>0.0008934860980501074</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.0002813980126402</v>
-      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
-      <c r="I17" t="n">
-        <v>7.13795499841473e-05</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Synthetic Liquids</t>
+          <t>Biogenic Liquids</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -854,17 +870,29 @@
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="F18" t="n">
+        <v>0.0065796695125626</v>
+      </c>
+      <c r="G18" t="n">
+        <v>5.288281768360289e-05</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.0008527706183944</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.0053643901672684</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1.386971540372111e-05</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.0107282242132517</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Biogenic Liquids</t>
+          <t>Biomass [Solid]</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -872,30 +900,20 @@
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="n">
-        <v>0.0065796695125626</v>
-      </c>
-      <c r="G19" t="n">
-        <v>5.288281768360289e-05</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0.0008527706183944</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0.0053643901672684</v>
-      </c>
-      <c r="J19" t="n">
-        <v>1.386971540372111e-05</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.0107282242132517</v>
-      </c>
+      <c r="E19" t="n">
+        <v>0.0003412855129705203</v>
+      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Biomass [Solid]</t>
+          <t>Renewable Energy Carrier</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -904,7 +922,7 @@
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="n">
-        <v>0.0003412855129705203</v>
+        <v>0.01383436736009862</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -916,28 +934,42 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Renewable Energy Carrier</t>
+          <t>Overall Demand</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>2040</v>
       </c>
       <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
+      <c r="D21" t="n">
+        <v>0.00210862566944133</v>
+      </c>
       <c r="E21" t="n">
-        <v>0.01383436736009862</v>
-      </c>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+        <v>0.01506913897111925</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.0101772308379702</v>
+      </c>
+      <c r="G21" t="n">
+        <v>5.288281768360289e-05</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.0008531991521446696</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.005777171090269506</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1.386971540372111e-05</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.0107282242132517</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Overall Demand</t>
+          <t>Hydrogen</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -946,17 +978,23 @@
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
+      <c r="F22" t="n">
+        <v>0.0046062812184038</v>
+      </c>
       <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
+      <c r="H22" t="n">
+        <v>7.263301890013548e-07</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.0005429881562066</v>
+      </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Hydrogen</t>
+          <t>Methanol</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -965,30 +1003,26 @@
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
-      <c r="F23" t="n">
-        <v>0.0046062812184038</v>
-      </c>
+      <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
-      <c r="H23" t="n">
-        <v>7.263301890013548e-07</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0.0005429881562066</v>
-      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Methanol</t>
+          <t>Ammonia</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>2050</v>
       </c>
       <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
+      <c r="D24" t="n">
+        <v>0.002229631621553799</v>
+      </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
@@ -1000,28 +1034,30 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Ammonia</t>
+          <t>Synthetic Gases</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>2050</v>
       </c>
       <c r="C25" t="inlineStr"/>
-      <c r="D25" t="n">
-        <v>0.002229631621553799</v>
-      </c>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
+      <c r="F25" t="n">
+        <v>1.348470078319263e-08</v>
+      </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
+      <c r="I25" t="n">
+        <v>2.430335893101461e-09</v>
+      </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Synthetic Gases</t>
+          <t>Biogenic Gases</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1029,14 +1065,16 @@
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
+      <c r="E26" t="n">
+        <v>0.002364045503683177</v>
+      </c>
       <c r="F26" t="n">
-        <v>1.348470078319263e-08</v>
+        <v>5.076604723722549e-05</v>
       </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="n">
-        <v>2.430335893101461e-09</v>
+        <v>2.07235882904356e-05</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1044,7 +1082,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Biogenic Gases</t>
+          <t>Synthetic Liquids</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1052,24 +1090,30 @@
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
-      <c r="E27" t="n">
-        <v>0.002364045503683177</v>
-      </c>
+      <c r="E27" t="inlineStr"/>
       <c r="F27" t="n">
-        <v>5.076604723722549e-05</v>
-      </c>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
+        <v>1.443660391841188e-10</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1.947388345786181e-12</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1.779259000987234e-11</v>
+      </c>
       <c r="I27" t="n">
-        <v>2.07235882904356e-05</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+        <v>9.057952916775318e-11</v>
+      </c>
+      <c r="J27" t="n">
+        <v>9.499126337812933e-14</v>
+      </c>
+      <c r="K27" t="n">
+        <v>7.890151725404005e-10</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Synthetic Liquids</t>
+          <t>Biogenic Liquids</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1079,28 +1123,28 @@
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="n">
-        <v>1.443660391841188e-10</v>
+        <v>0.001484476495781945</v>
       </c>
       <c r="G28" t="n">
-        <v>1.947388345786181e-12</v>
+        <v>9.449231048887008e-05</v>
       </c>
       <c r="H28" t="n">
-        <v>1.779259000987234e-11</v>
+        <v>0.001347341140899</v>
       </c>
       <c r="I28" t="n">
-        <v>9.057952916775318e-11</v>
+        <v>0.0013799432361925</v>
       </c>
       <c r="J28" t="n">
-        <v>9.499126337812933e-14</v>
+        <v>1.783865034937578e-05</v>
       </c>
       <c r="K28" t="n">
-        <v>7.890151725404005e-10</v>
+        <v>0.0152473298017653</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Biogenic Liquids</t>
+          <t>Biomass [Solid]</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1108,30 +1152,20 @@
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="n">
-        <v>0.001484476495781945</v>
-      </c>
-      <c r="G29" t="n">
-        <v>9.449231048887008e-05</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0.001347341140899</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0.0013799432361925</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1.783865034937578e-05</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.0152473298017653</v>
-      </c>
+      <c r="E29" t="n">
+        <v>0.0003238150465660824</v>
+      </c>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Biomass [Solid]</t>
+          <t>Renewable Energy Carrier</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1140,7 +1174,7 @@
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="n">
-        <v>0.0003238150465660824</v>
+        <v>0.03636204089575176</v>
       </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
@@ -1152,23 +1186,37 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Renewable Energy Carrier</t>
+          <t>Overall Demand</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>2050</v>
       </c>
       <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
+      <c r="D31" t="n">
+        <v>0.002229631621553799</v>
+      </c>
       <c r="E31" t="n">
-        <v>0.03636204089575176</v>
-      </c>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+        <v>0.03904990144600101</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.006141537390489792</v>
+      </c>
+      <c r="G31" t="n">
+        <v>9.449231243625843e-05</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.001348067488880591</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.001943657501604958</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1.783865044436705e-05</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.01524733059078047</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Outputs/PtX_demand_EL.xlsx
+++ b/Outputs/PtX_demand_EL.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -602,7 +602,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Synthetic Liquids</t>
+          <t>Fossil Gases</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -611,17 +611,21 @@
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
+      <c r="F7" t="n">
+        <v>0.0026688655762997</v>
+      </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
+      <c r="I7" t="n">
+        <v>0.0001719976325194742</v>
+      </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Biogenic Liquids</t>
+          <t>Synthetic Liquids</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -630,29 +634,17 @@
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="n">
-        <v>0.0136010314688469</v>
-      </c>
-      <c r="G8" t="n">
-        <v>3.244016311241035e-05</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.0005492420170502</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.0081773923115365</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1.141692868523114e-05</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.009414850482104999</v>
-      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Biomass [Solid]</t>
+          <t>Biogenic Liquids</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -660,20 +652,30 @@
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="n">
-        <v>0.0003571773847758737</v>
-      </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="n">
+        <v>0.0136010314688469</v>
+      </c>
+      <c r="G9" t="n">
+        <v>3.244016311241035e-05</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.0108660619107528</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.0081773923115365</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1.141692868523114e-05</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.009414850482104999</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Renewable Energy Carrier</t>
+          <t>Fossil Liquids</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -681,120 +683,132 @@
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
-      <c r="E10" t="n">
-        <v>0.003241837538645633</v>
-      </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="n">
+        <v>0.1339741348927592</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.0002284665558812</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.0987525188613676</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.051339213366296</v>
+      </c>
+      <c r="J10" t="n">
+        <v>6.910669335085698e-05</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.0911124665966538</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Overall Demand</t>
+          <t>Biomass [Solid]</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>2030</v>
       </c>
       <c r="C11" t="inlineStr"/>
-      <c r="D11" t="n">
-        <v>0.001961873253426569</v>
-      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.003807482572493612</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.01452730161349414</v>
-      </c>
-      <c r="G11" t="n">
-        <v>3.244016311241035e-05</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.0005492471362522106</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.008455601296392844</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1.141692868523114e-05</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.009414850482104999</v>
-      </c>
+        <v>0.0003571773847758737</v>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Hydrogen</t>
+          <t>Renewable Energy Carrier</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2040</v>
+        <v>2030</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="n">
-        <v>0.0033161620761759</v>
-      </c>
+      <c r="E12" t="n">
+        <v>0.003241837538645633</v>
+      </c>
+      <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
-      <c r="H12" t="n">
-        <v>4.285337502695454e-07</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.0003414012692354143</v>
-      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Methanol</t>
+          <t>Overall Demand</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2040</v>
+        <v>2030</v>
       </c>
       <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="D13" t="n">
+        <v>0.001961873253426569</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.003807482572493612</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.151170302082553</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.0002609067189936103</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.1096185858913224</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.05996681229520832</v>
+      </c>
+      <c r="J13" t="n">
+        <v>8.052362203608813e-05</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.1005273170787588</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Ammonia</t>
+          <t>Hydrogen</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>2040</v>
       </c>
       <c r="C14" t="inlineStr"/>
-      <c r="D14" t="n">
-        <v>0.00210862566944133</v>
-      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
+      <c r="F14" t="n">
+        <v>0.0033161620761759</v>
+      </c>
       <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
+      <c r="H14" t="n">
+        <v>4.285337502695454e-07</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.0003414012692354143</v>
+      </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Synthetic Gases</t>
+          <t>Methanol</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -803,46 +817,38 @@
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="n">
-        <v>1.236591495221729e-09</v>
-      </c>
+      <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
-      <c r="I15" t="n">
-        <v>1.037815437865046e-10</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Biogenic Gases</t>
+          <t>Ammonia</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>2040</v>
       </c>
       <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="n">
-        <v>0.0008934860980501074</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.0002813980126402</v>
-      </c>
+      <c r="D16" t="n">
+        <v>0.00210862566944133</v>
+      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
-      <c r="I16" t="n">
-        <v>7.13795499841473e-05</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Synthetic Liquids</t>
+          <t>Synthetic Gases</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -851,17 +857,21 @@
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
+      <c r="F17" t="n">
+        <v>1.236591495221729e-09</v>
+      </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+      <c r="I17" t="n">
+        <v>1.037815437865046e-10</v>
+      </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Biogenic Liquids</t>
+          <t>Biogenic Gases</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -869,30 +879,24 @@
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>0.0008934860980501074</v>
+      </c>
       <c r="F18" t="n">
-        <v>0.0065796695125626</v>
-      </c>
-      <c r="G18" t="n">
-        <v>5.288281768360289e-05</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0.0008527706183944</v>
-      </c>
+        <v>0.0002813980126402</v>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="n">
-        <v>0.0053643901672684</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1.386971540372111e-05</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.0107282242132517</v>
-      </c>
+        <v>7.13795499841473e-05</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Biomass [Solid]</t>
+          <t>Fossil Gases</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -900,20 +904,22 @@
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
-      <c r="E19" t="n">
-        <v>0.0003412855129705203</v>
-      </c>
-      <c r="F19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="n">
+        <v>0.0014641080342316</v>
+      </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>0.0001817098307918636</v>
+      </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Renewable Energy Carrier</t>
+          <t>Synthetic Liquids</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -921,9 +927,7 @@
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
-      <c r="E20" t="n">
-        <v>0.01383436736009862</v>
-      </c>
+      <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
@@ -934,30 +938,26 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Overall Demand</t>
+          <t>Biogenic Liquids</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>2040</v>
       </c>
       <c r="C21" t="inlineStr"/>
-      <c r="D21" t="n">
-        <v>0.00210862566944133</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.01506913897111925</v>
-      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
       <c r="F21" t="n">
-        <v>0.0101772308379702</v>
+        <v>0.0065796695125626</v>
       </c>
       <c r="G21" t="n">
         <v>5.288281768360289e-05</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0008531991521446696</v>
+        <v>0.0134120244731173</v>
       </c>
       <c r="I21" t="n">
-        <v>0.005777171090269506</v>
+        <v>0.0053643901672684</v>
       </c>
       <c r="J21" t="n">
         <v>1.386971540372111e-05</v>
@@ -969,40 +969,48 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Hydrogen</t>
+          <t>Fossil Liquids</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2050</v>
+        <v>2040</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="n">
-        <v>0.0046062812184038</v>
-      </c>
-      <c r="G22" t="inlineStr"/>
+        <v>0.0427780115978808</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.0002456142496622</v>
+      </c>
       <c r="H22" t="n">
-        <v>7.263301890013548e-07</v>
+        <v>0.09318696107376309</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0005429881562066</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+        <v>0.0227762054155748</v>
+      </c>
+      <c r="J22" t="n">
+        <v>6.132600771488283e-05</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.0881296132116407</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Methanol</t>
+          <t>Biomass [Solid]</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2050</v>
+        <v>2040</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>0.0003412855129705203</v>
+      </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
@@ -1013,17 +1021,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Ammonia</t>
+          <t>Renewable Energy Carrier</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2050</v>
+        <v>2040</v>
       </c>
       <c r="C24" t="inlineStr"/>
-      <c r="D24" t="n">
-        <v>0.002229631621553799</v>
-      </c>
-      <c r="E24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="n">
+        <v>0.01383436736009862</v>
+      </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
@@ -1034,30 +1042,42 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Synthetic Gases</t>
+          <t>Overall Demand</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2050</v>
+        <v>2040</v>
       </c>
       <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
+      <c r="D25" t="n">
+        <v>0.00210862566944133</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.01506913897111925</v>
+      </c>
       <c r="F25" t="n">
-        <v>1.348470078319263e-08</v>
-      </c>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
+        <v>0.05441935047008259</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.0002984970673458029</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.1065994140806307</v>
+      </c>
       <c r="I25" t="n">
-        <v>2.430335893101461e-09</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+        <v>0.02873508633663617</v>
+      </c>
+      <c r="J25" t="n">
+        <v>7.519572311860394e-05</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.0988578374248924</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Biogenic Gases</t>
+          <t>Hydrogen</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1065,16 +1085,16 @@
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
-      <c r="E26" t="n">
-        <v>0.002364045503683177</v>
-      </c>
+      <c r="E26" t="inlineStr"/>
       <c r="F26" t="n">
-        <v>5.076604723722549e-05</v>
+        <v>0.0046062812184038</v>
       </c>
       <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
+      <c r="H26" t="n">
+        <v>7.263301890013548e-07</v>
+      </c>
       <c r="I26" t="n">
-        <v>2.07235882904356e-05</v>
+        <v>0.0005429881562066</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1082,7 +1102,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Synthetic Liquids</t>
+          <t>Methanol</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1091,60 +1111,38 @@
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
-      <c r="F27" t="n">
-        <v>1.443660391841188e-10</v>
-      </c>
-      <c r="G27" t="n">
-        <v>1.947388345786181e-12</v>
-      </c>
-      <c r="H27" t="n">
-        <v>1.779259000987234e-11</v>
-      </c>
-      <c r="I27" t="n">
-        <v>9.057952916775318e-11</v>
-      </c>
-      <c r="J27" t="n">
-        <v>9.499126337812933e-14</v>
-      </c>
-      <c r="K27" t="n">
-        <v>7.890151725404005e-10</v>
-      </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Biogenic Liquids</t>
+          <t>Ammonia</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>2050</v>
       </c>
       <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
+      <c r="D28" t="n">
+        <v>0.002229631621553799</v>
+      </c>
       <c r="E28" t="inlineStr"/>
-      <c r="F28" t="n">
-        <v>0.001484476495781945</v>
-      </c>
-      <c r="G28" t="n">
-        <v>9.449231048887008e-05</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0.001347341140899</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0.0013799432361925</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1.783865034937578e-05</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.0152473298017653</v>
-      </c>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Biomass [Solid]</t>
+          <t>Synthetic Gases</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1152,20 +1150,22 @@
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
-      <c r="E29" t="n">
-        <v>0.0003238150465660824</v>
-      </c>
-      <c r="F29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="n">
+        <v>1.348470078319263e-08</v>
+      </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
+      <c r="I29" t="n">
+        <v>2.430335893101461e-09</v>
+      </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Renewable Energy Carrier</t>
+          <t>Biogenic Gases</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1174,48 +1174,210 @@
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="n">
-        <v>0.03636204089575176</v>
-      </c>
-      <c r="F30" t="inlineStr"/>
+        <v>0.002364045503683177</v>
+      </c>
+      <c r="F30" t="n">
+        <v>5.076604723722549e-05</v>
+      </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
+      <c r="I30" t="n">
+        <v>2.07235882904356e-05</v>
+      </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Overall Demand</t>
+          <t>Fossil Gases</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>2050</v>
       </c>
       <c r="C31" t="inlineStr"/>
-      <c r="D31" t="n">
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="n">
+        <v>0.0001017146949104807</v>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="n">
+        <v>6.895719913371703e-05</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Synthetic Liquids</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="n">
+        <v>1.443660391841188e-10</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1.947388345786181e-12</v>
+      </c>
+      <c r="H32" t="n">
+        <v>5.016665144292069e-10</v>
+      </c>
+      <c r="I32" t="n">
+        <v>9.057952916775318e-11</v>
+      </c>
+      <c r="J32" t="n">
+        <v>9.499126337812933e-14</v>
+      </c>
+      <c r="K32" t="n">
+        <v>7.890151725404005e-10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Biogenic Liquids</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="n">
+        <v>0.001484476495781945</v>
+      </c>
+      <c r="G33" t="n">
+        <v>9.449231048887008e-05</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.0177972577647702</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.0013799432361925</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1.783865034937578e-05</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.0152473298017653</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Fossil Liquids</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="n">
+        <v>0.008455469550090499</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.000221533651345</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.0837043172234941</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.004080268444763</v>
+      </c>
+      <c r="J34" t="n">
+        <v>5.278641618417322e-05</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.0818667823546865</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Biomass [Solid]</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="n">
+        <v>0.0003238150465660824</v>
+      </c>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Renewable Energy Carrier</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="n">
+        <v>0.03636204089575176</v>
+      </c>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Overall Demand</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="n">
         <v>0.002229631621553799</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E37" t="n">
         <v>0.03904990144600101</v>
       </c>
-      <c r="F31" t="n">
-        <v>0.006141537390489792</v>
-      </c>
-      <c r="G31" t="n">
-        <v>9.449231243625843e-05</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0.001348067488880591</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0.001943657501604958</v>
-      </c>
-      <c r="J31" t="n">
-        <v>1.783865044436705e-05</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.01524733059078047</v>
+      <c r="F37" t="n">
+        <v>0.01469872163549077</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.0003160259637812584</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.1015023018201198</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.006092883145501675</v>
+      </c>
+      <c r="J37" t="n">
+        <v>7.062506662854026e-05</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.09711411294546697</v>
       </c>
     </row>
   </sheetData>
